--- a/XL_pricer/CDSCurve/CDSCurve_noBBG.xlsx
+++ b/XL_pricer/CDSCurve/CDSCurve_noBBG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dpsugasa\WorkFiles\deriv_models\High Yield Bond\highyieldbond\XL_pricer\CDSCurve\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479772F7-CB9A-489A-8D1B-FEFF37ECB0E2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282F0DB7-2D80-4F03-8E65-64438A8BA5F7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="10980" tabRatio="230" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="10980" tabRatio="230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EONIA" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <definedName name="sub_recovery">#REF!</definedName>
     <definedName name="Today">EONIA!$C$2</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcMode="manual"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1541,8 +1541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AG35"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.5"/>
@@ -1565,7 +1565,7 @@
       </c>
       <c r="C2" s="10">
         <f ca="1">TODAY()</f>
-        <v>43536</v>
+        <v>43538</v>
       </c>
       <c r="D2" s="19"/>
       <c r="E2" s="25" t="s">
@@ -1600,7 +1600,7 @@
       </c>
       <c r="H3" s="21" t="str">
         <f>_xll.qlOISRateHelper(,2,G3,F3,$C$6)</f>
-        <v>obj_0007b#0002</v>
+        <v>obj_0005e#0008</v>
       </c>
     </row>
     <row r="4" spans="2:8">
@@ -1617,7 +1617,7 @@
       </c>
       <c r="H4" s="21" t="str">
         <f>_xll.qlOISRateHelper(,2,G4,F4,$C$6)</f>
-        <v>obj_0007f#0002</v>
+        <v>obj_0005f#0008</v>
       </c>
     </row>
     <row r="5" spans="2:8">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="H5" s="21" t="str">
         <f>_xll.qlOISRateHelper(,2,G5,F5,$C$6)</f>
-        <v>obj_0006d#0002</v>
+        <v>obj_00058#0008</v>
       </c>
     </row>
     <row r="6" spans="2:8">
@@ -1643,7 +1643,7 @@
       </c>
       <c r="C6" s="16" t="str">
         <f>_xll.qlEonia()</f>
-        <v>obj_00003#0011</v>
+        <v>obj_00046#0008</v>
       </c>
       <c r="E6" s="27" t="s">
         <v>54</v>
@@ -1656,7 +1656,7 @@
       </c>
       <c r="H6" s="21" t="str">
         <f>_xll.qlOISRateHelper(,2,G6,F6,$C$6)</f>
-        <v>obj_00073#0001</v>
+        <v>obj_0005b#0008</v>
       </c>
     </row>
     <row r="7" spans="2:8">
@@ -1677,7 +1677,7 @@
       </c>
       <c r="H7" s="21" t="str">
         <f>_xll.qlOISRateHelper(,2,G7,F7,$C$6)</f>
-        <v>obj_0007a#0002</v>
+        <v>obj_0004d#0008</v>
       </c>
     </row>
     <row r="8" spans="2:8">
@@ -1698,7 +1698,7 @@
       </c>
       <c r="H8" s="21" t="str">
         <f>_xll.qlOISRateHelper(,2,G8,F8,$C$6)</f>
-        <v>obj_0007e#0002</v>
+        <v>obj_0004f#0008</v>
       </c>
     </row>
     <row r="9" spans="2:8">
@@ -1719,7 +1719,7 @@
       </c>
       <c r="H9" s="21" t="str">
         <f>_xll.qlOISRateHelper(,2,G9,F9,$C$6)</f>
-        <v>obj_00080#0002</v>
+        <v>obj_00050#0008</v>
       </c>
     </row>
     <row r="10" spans="2:8">
@@ -1738,7 +1738,7 @@
       </c>
       <c r="H10" s="21" t="str">
         <f>_xll.qlOISRateHelper(,2,G10,F10,$C$6)</f>
-        <v>obj_00071#0002</v>
+        <v>obj_0005a#0008</v>
       </c>
     </row>
     <row r="11" spans="2:8">
@@ -1757,7 +1757,7 @@
       </c>
       <c r="H11" s="21" t="str">
         <f>_xll.qlOISRateHelper(,2,G11,F11,$C$6)</f>
-        <v>obj_00088#0003</v>
+        <v>obj_00054#0008</v>
       </c>
     </row>
     <row r="12" spans="2:8">
@@ -1766,7 +1766,7 @@
       </c>
       <c r="C12" s="14" t="str">
         <f>_xll.qlPiecewiseYieldCurve(,0,C7,H3:H35,C9)</f>
-        <v>obj_00090#0007</v>
+        <v>obj_00068#0007</v>
       </c>
       <c r="E12" s="27" t="s">
         <v>60</v>
@@ -1779,7 +1779,7 @@
       </c>
       <c r="H12" s="21" t="str">
         <f>_xll.qlOISRateHelper(,2,G12,F12,$C$6)</f>
-        <v>obj_0008e#0005</v>
+        <v>obj_00057#0008</v>
       </c>
     </row>
     <row r="13" spans="2:8">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="H13" s="21" t="str">
         <f>_xll.qlOISRateHelper(,2,G13,F13,$C$6)</f>
-        <v>obj_0006e#0003</v>
+        <v>obj_00048#0008</v>
       </c>
     </row>
     <row r="14" spans="2:8">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="H14" s="21" t="str">
         <f>_xll.qlOISRateHelper(,2,G14,F14,$C$6)</f>
-        <v>obj_0008c#0004</v>
+        <v>obj_00056#0008</v>
       </c>
     </row>
     <row r="15" spans="2:8">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="H15" s="21" t="str">
         <f>_xll.qlOISRateHelper(,2,G15,F15,$C$6)</f>
-        <v>obj_00079#0003</v>
+        <v>obj_0005d#0008</v>
       </c>
     </row>
     <row r="16" spans="2:8">
@@ -1846,7 +1846,7 @@
       </c>
       <c r="H16" s="21" t="str">
         <f>_xll.qlOISRateHelper(,2,G16,F16,$C$6)</f>
-        <v>obj_00086#0004</v>
+        <v>obj_00053#0008</v>
       </c>
     </row>
     <row r="17" spans="5:8">
@@ -1861,7 +1861,7 @@
       </c>
       <c r="H17" s="21" t="str">
         <f>_xll.qlOISRateHelper(,2,G17,F17,$C$6)</f>
-        <v>obj_00081#0005</v>
+        <v>obj_00060#0008</v>
       </c>
     </row>
     <row r="18" spans="5:8">
@@ -1876,7 +1876,7 @@
       </c>
       <c r="H18" s="21" t="str">
         <f>_xll.qlOISRateHelper(,2,G18,F18,$C$6)</f>
-        <v>obj_00084#0001</v>
+        <v>obj_00052#0008</v>
       </c>
     </row>
     <row r="19" spans="5:8">
@@ -1891,7 +1891,7 @@
       </c>
       <c r="H19" s="21" t="str">
         <f>_xll.qlOISRateHelper(,2,G19,F19,$C$6)</f>
-        <v>obj_00089#0005</v>
+        <v>obj_00064#0008</v>
       </c>
     </row>
     <row r="20" spans="5:8">
@@ -1906,7 +1906,7 @@
       </c>
       <c r="H20" s="21" t="str">
         <f>_xll.qlOISRateHelper(,2,G20,F20,$C$6)</f>
-        <v>obj_0007d#0006</v>
+        <v>obj_00047#0008</v>
       </c>
     </row>
     <row r="21" spans="5:8">
@@ -1921,7 +1921,7 @@
       </c>
       <c r="H21" s="21" t="str">
         <f>_xll.qlOISRateHelper(,2,G21,F21,$C$6)</f>
-        <v>obj_0006f#0005</v>
+        <v>obj_00059#0008</v>
       </c>
     </row>
     <row r="22" spans="5:8">
@@ -1936,7 +1936,7 @@
       </c>
       <c r="H22" s="21" t="str">
         <f>_xll.qlOISRateHelper(,2,G22,F22,$C$6)</f>
-        <v>obj_00074#0007</v>
+        <v>obj_0004b#0008</v>
       </c>
     </row>
     <row r="23" spans="5:8">
@@ -1951,7 +1951,7 @@
       </c>
       <c r="H23" s="21" t="str">
         <f>_xll.qlOISRateHelper(,2,G23,F23,$C$6)</f>
-        <v>obj_00078#0005</v>
+        <v>obj_0004c#0008</v>
       </c>
     </row>
     <row r="24" spans="5:8">
@@ -1966,7 +1966,7 @@
       </c>
       <c r="H24" s="21" t="str">
         <f>_xll.qlOISRateHelper(,2,G24,F24,$C$6)</f>
-        <v>obj_0007c#0006</v>
+        <v>obj_0004e#0008</v>
       </c>
     </row>
     <row r="25" spans="5:8">
@@ -1981,7 +1981,7 @@
       </c>
       <c r="H25" s="21" t="str">
         <f>_xll.qlOISRateHelper(,2,G25,F25,$C$6)</f>
-        <v>obj_00082#0007</v>
+        <v>obj_00051#0008</v>
       </c>
     </row>
     <row r="26" spans="5:8">
@@ -1996,7 +1996,7 @@
       </c>
       <c r="H26" s="21" t="str">
         <f>_xll.qlOISRateHelper(,2,G26,F26,$C$6)</f>
-        <v>obj_00072#0006</v>
+        <v>obj_0004a#0008</v>
       </c>
     </row>
     <row r="27" spans="5:8">
@@ -2011,7 +2011,7 @@
       </c>
       <c r="H27" s="21" t="str">
         <f>_xll.qlOISRateHelper(,2,G27,F27,$C$6)</f>
-        <v>obj_0008a#0006</v>
+        <v>obj_00055#0008</v>
       </c>
     </row>
     <row r="28" spans="5:8">
@@ -2026,7 +2026,7 @@
       </c>
       <c r="H28" s="21" t="str">
         <f>_xll.qlOISRateHelper(,2,G28,F28,$C$6)</f>
-        <v>obj_0008f#0006</v>
+        <v>obj_00067#0007</v>
       </c>
     </row>
     <row r="29" spans="5:8">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="H29" s="21" t="str">
         <f>_xll.qlOISRateHelper(,2,G29,F29,$C$6)</f>
-        <v>obj_00070#0007</v>
+        <v>obj_00049#0008</v>
       </c>
     </row>
     <row r="30" spans="5:8">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="H30" s="21" t="str">
         <f>_xll.qlOISRateHelper(,2,G30,F30,$C$6)</f>
-        <v>obj_0008d#0007</v>
+        <v>obj_00066#0007</v>
       </c>
     </row>
     <row r="31" spans="5:8">
@@ -2071,7 +2071,7 @@
       </c>
       <c r="H31" s="21" t="str">
         <f>_xll.qlOISRateHelper(,2,G31,F31,$C$6)</f>
-        <v>obj_00077#0007</v>
+        <v>obj_0005c#0008</v>
       </c>
     </row>
     <row r="32" spans="5:8">
@@ -2086,7 +2086,7 @@
       </c>
       <c r="H32" s="21" t="str">
         <f>_xll.qlOISRateHelper(,2,G32,F32,$C$6)</f>
-        <v>obj_00087#0007</v>
+        <v>obj_00063#0008</v>
       </c>
     </row>
     <row r="33" spans="5:33">
@@ -2101,7 +2101,7 @@
       </c>
       <c r="H33" s="21" t="str">
         <f>_xll.qlOISRateHelper(,2,G33,F33,$C$6)</f>
-        <v>obj_00083#0005</v>
+        <v>obj_00061#0008</v>
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
@@ -2140,7 +2140,7 @@
       </c>
       <c r="H34" s="21" t="str">
         <f>_xll.qlOISRateHelper(,2,G34,F34,$C$6)</f>
-        <v>obj_00085#0006</v>
+        <v>obj_00062#0008</v>
       </c>
     </row>
     <row r="35" spans="5:33">
@@ -2155,7 +2155,7 @@
       </c>
       <c r="H35" s="24" t="str">
         <f>_xll.qlOISRateHelper(,2,G35,F35,$C$6)</f>
-        <v>obj_0008b#0005</v>
+        <v>obj_00065#0007</v>
       </c>
     </row>
   </sheetData>
@@ -2170,8 +2170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD6365E6-1B5A-4A12-8D9C-8D5FF4BF8322}">
   <dimension ref="B2:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.53125" defaultRowHeight="12.75"/>
@@ -2255,15 +2255,15 @@
       </c>
       <c r="J4" s="49" t="str">
         <f>_xll.qlSpreadCdsHelper(,$G4/10000,$F4,1,"TARGET","Quarterly","Modified Following","OldCDS",EONIA!$C$9,$H4,EONIA!$C$12,TRUE,TRUE,TRUE)</f>
-        <v>obj_000e6#0063</v>
+        <v>obj_00070#0006</v>
       </c>
       <c r="L4" s="39" t="str">
         <f>_xll.qlPiecewiseHazardRateCurve(,J4:J11,EONIA!$C$9,EONIA!$C$7,"BACKWARDFLAT")</f>
-        <v>obj_000ed#0045</v>
+        <v>obj_00071#0006</v>
       </c>
       <c r="N4" s="54">
         <f ca="1">Today</f>
-        <v>43536</v>
+        <v>43538</v>
       </c>
       <c r="O4" s="33">
         <f ca="1">_xll.qlDefaultTSDefaultProbability($L$4,N4,TRUE)</f>
@@ -2294,15 +2294,15 @@
       </c>
       <c r="J5" s="49" t="str">
         <f>_xll.qlSpreadCdsHelper(,$G5/10000,$F5,1,"TARGET","Quarterly","Modified Following","OldCDS",EONIA!$C$9,$H5,EONIA!$C$12,TRUE,TRUE,TRUE)</f>
-        <v>obj_000e7#0027</v>
+        <v>obj_0006c#0007</v>
       </c>
       <c r="N5" s="55">
         <f ca="1">_xll.qlCalendarAdvance("TARGET",N4,"6M","Unadjusted")</f>
-        <v>43720</v>
+        <v>43722</v>
       </c>
       <c r="O5" s="33">
         <f ca="1">_xll.qlDefaultTSDefaultProbability($L$4,N5,TRUE)</f>
-        <v>1.573718981596306E-3</v>
+        <v>1.5737152825616718E-3</v>
       </c>
     </row>
     <row r="6" spans="2:15">
@@ -2329,15 +2329,15 @@
       </c>
       <c r="J6" s="49" t="str">
         <f>_xll.qlSpreadCdsHelper(,$G6/10000,$F6,1,"TARGET","Quarterly","Modified Following","OldCDS",EONIA!$C$9,$H6,EONIA!$C$12,TRUE,TRUE,TRUE)</f>
-        <v>obj_000e9#0027</v>
+        <v>obj_0006b#0007</v>
       </c>
       <c r="N6" s="55">
         <f ca="1">_xll.qlCalendarAdvance("TARGET",N5,"6M","Unadjusted")</f>
-        <v>43902</v>
+        <v>43904</v>
       </c>
       <c r="O6" s="33">
         <f ca="1">_xll.qlDefaultTSDefaultProbability($L$4,N6,TRUE)</f>
-        <v>3.8073745950588656E-3</v>
+        <v>3.8114784306991778E-3</v>
       </c>
     </row>
     <row r="7" spans="2:15">
@@ -2364,15 +2364,15 @@
       </c>
       <c r="J7" s="49" t="str">
         <f>_xll.qlSpreadCdsHelper(,$G7/10000,$F7,1,"TARGET","Quarterly","Modified Following","OldCDS",EONIA!$C$9,$H7,EONIA!$C$12,TRUE,TRUE,TRUE)</f>
-        <v>obj_000eb#0027</v>
+        <v>obj_0006a#0007</v>
       </c>
       <c r="N7" s="55">
         <f ca="1">_xll.qlCalendarAdvance("TARGET",N6,"6M","Unadjusted")</f>
-        <v>44086</v>
+        <v>44088</v>
       </c>
       <c r="O7" s="33">
         <f ca="1">_xll.qlDefaultTSDefaultProbability($L$4,N7,TRUE)</f>
-        <v>7.0849884872266067E-3</v>
+        <v>7.0965264915332504E-3</v>
       </c>
     </row>
     <row r="8" spans="2:15">
@@ -2399,15 +2399,15 @@
       </c>
       <c r="J8" s="49" t="str">
         <f>_xll.qlSpreadCdsHelper(,$G8/10000,$F8,1,"TARGET","Quarterly","Modified Following","OldCDS",EONIA!$C$9,$H8,EONIA!$C$12,TRUE,TRUE,TRUE)</f>
-        <v>obj_000ec#0027</v>
+        <v>obj_00069#0007</v>
       </c>
       <c r="N8" s="55">
         <f ca="1">_xll.qlCalendarAdvance("TARGET",N7,"6M","Unadjusted")</f>
-        <v>44267</v>
+        <v>44269</v>
       </c>
       <c r="O8" s="33">
         <f ca="1">_xll.qlDefaultTSDefaultProbability($L$4,N8,TRUE)</f>
-        <v>1.0342874572011995E-2</v>
+        <v>1.0350619764029512E-2</v>
       </c>
     </row>
     <row r="9" spans="2:15">
@@ -2434,15 +2434,15 @@
       </c>
       <c r="J9" s="49" t="str">
         <f>_xll.qlSpreadCdsHelper(,$G9/10000,$F9,1,"TARGET","Quarterly","Modified Following","OldCDS",EONIA!$C$9,$H9,EONIA!$C$12,TRUE,TRUE,TRUE)</f>
-        <v>obj_000ef#0012</v>
+        <v>obj_0006d#0007</v>
       </c>
       <c r="N9" s="55">
         <f ca="1">_xll.qlCalendarAdvance("TARGET",N8,"6M","Unadjusted")</f>
-        <v>44451</v>
+        <v>44453</v>
       </c>
       <c r="O9" s="33">
         <f ca="1">_xll.qlDefaultTSDefaultProbability($L$4,N9,TRUE)</f>
-        <v>1.7793820723511433E-2</v>
+        <v>1.7839952727362829E-2</v>
       </c>
     </row>
     <row r="10" spans="2:15">
@@ -2469,15 +2469,15 @@
       </c>
       <c r="J10" s="49" t="str">
         <f>_xll.qlSpreadCdsHelper(,$G10/10000,$F10,1,"TARGET","Quarterly","Modified Following","OldCDS",EONIA!$C$9,$H10,EONIA!$C$12,TRUE,TRUE,TRUE)</f>
-        <v>obj_000e8#0027</v>
+        <v>obj_0006e#0007</v>
       </c>
       <c r="N10" s="55">
         <f ca="1">_xll.qlCalendarAdvance("TARGET",N9,"6M","Unadjusted")</f>
-        <v>44632</v>
+        <v>44634</v>
       </c>
       <c r="O10" s="33">
         <f ca="1">_xll.qlDefaultTSDefaultProbability($L$4,N10,TRUE)</f>
-        <v>2.5300911604098308E-2</v>
+        <v>2.5337516693329509E-2</v>
       </c>
     </row>
     <row r="11" spans="2:15">
@@ -2505,75 +2505,75 @@
       <c r="I11" s="31"/>
       <c r="J11" s="50" t="str">
         <f>_xll.qlSpreadCdsHelper(,$G11/10000,$F11,1,"TARGET","Quarterly","Modified Following","OldCDS",EONIA!$C$9,$H11,EONIA!$C$12,TRUE,TRUE,TRUE)</f>
-        <v>obj_000ea#0027</v>
+        <v>obj_0006f#0006</v>
       </c>
       <c r="N11" s="55">
         <f ca="1">_xll.qlCalendarAdvance("TARGET",N10,"6M","Unadjusted")</f>
-        <v>44816</v>
+        <v>44818</v>
       </c>
       <c r="O11" s="33">
         <f ca="1">_xll.qlDefaultTSDefaultProbability($L$4,N11,TRUE)</f>
-        <v>3.6775265340233565E-2</v>
+        <v>3.6845282184688521E-2</v>
       </c>
     </row>
     <row r="12" spans="2:15">
       <c r="N12" s="55">
         <f ca="1">_xll.qlCalendarAdvance("TARGET",N11,"6M","Unadjusted")</f>
-        <v>44997</v>
+        <v>44999</v>
       </c>
       <c r="O12" s="33">
         <f ca="1">_xll.qlDefaultTSDefaultProbability($L$4,N12,TRUE)</f>
-        <v>4.8125420469663616E-2</v>
+        <v>4.8184199286839147E-2</v>
       </c>
     </row>
     <row r="13" spans="2:15">
       <c r="N13" s="55">
         <f ca="1">_xll.qlCalendarAdvance("TARGET",N12,"6M","Unadjusted")</f>
-        <v>45181</v>
+        <v>45183</v>
       </c>
       <c r="O13" s="33">
         <f ca="1">_xll.qlDefaultTSDefaultProbability($L$4,N13,TRUE)</f>
-        <v>6.5797353453338925E-2</v>
+        <v>6.5911615855663852E-2</v>
       </c>
     </row>
     <row r="14" spans="2:15">
       <c r="N14" s="55">
         <f ca="1">_xll.qlCalendarAdvance("TARGET",N13,"6M","Unadjusted")</f>
-        <v>45363</v>
+        <v>45365</v>
       </c>
       <c r="O14" s="33">
         <f ca="1">_xll.qlDefaultTSDefaultProbability($L$4,N14,TRUE)</f>
-        <v>8.32302127907526E-2</v>
+        <v>8.3328195375029779E-2</v>
       </c>
     </row>
     <row r="15" spans="2:15">
       <c r="N15" s="55">
         <f ca="1">_xll.qlCalendarAdvance("TARGET",N14,"6M","Unadjusted")</f>
-        <v>45547</v>
+        <v>45549</v>
       </c>
       <c r="O15" s="33">
         <f ca="1">_xll.qlDefaultTSDefaultProbability($L$4,N15,TRUE)</f>
-        <v>0.1013228017380231</v>
+        <v>0.10141828962436983</v>
       </c>
     </row>
     <row r="16" spans="2:15">
       <c r="N16" s="55">
         <f ca="1">_xll.qlCalendarAdvance("TARGET",N15,"6M","Unadjusted")</f>
-        <v>45728</v>
+        <v>45730</v>
       </c>
       <c r="O16" s="33">
         <f ca="1">_xll.qlDefaultTSDefaultProbability($L$4,N16,TRUE)</f>
-        <v>0.11880699886870749</v>
+        <v>0.11889147943897826</v>
       </c>
     </row>
     <row r="17" spans="2:15">
       <c r="N17" s="55">
         <f ca="1">_xll.qlCalendarAdvance("TARGET",N16,"6M","Unadjusted")</f>
-        <v>45912</v>
+        <v>45914</v>
       </c>
       <c r="O17" s="33">
         <f ca="1">_xll.qlDefaultTSDefaultProbability($L$4,N17,TRUE)</f>
-        <v>0.13623235968888725</v>
+        <v>0.13630605230803061</v>
       </c>
     </row>
     <row r="18" spans="2:15">
@@ -2583,11 +2583,11 @@
       <c r="C18" s="41"/>
       <c r="N18" s="55">
         <f ca="1">_xll.qlCalendarAdvance("TARGET",N17,"6M","Unadjusted")</f>
-        <v>46093</v>
+        <v>46095</v>
       </c>
       <c r="O18" s="33">
         <f ca="1">_xll.qlDefaultTSDefaultProbability($L$4,N18,TRUE)</f>
-        <v>0.15303737457912048</v>
+        <v>0.15310083915433947</v>
       </c>
     </row>
     <row r="19" spans="2:15">
@@ -2599,11 +2599,11 @@
       </c>
       <c r="N19" s="55">
         <f ca="1">_xll.qlCalendarAdvance("TARGET",N18,"6M","Unadjusted")</f>
-        <v>46277</v>
+        <v>46279</v>
       </c>
       <c r="O19" s="33">
         <f ca="1">_xll.qlDefaultTSDefaultProbability($L$4,N19,TRUE)</f>
-        <v>0.16980341080614891</v>
+        <v>0.16986035499589935</v>
       </c>
     </row>
     <row r="20" spans="2:15">
@@ -2615,11 +2615,11 @@
       </c>
       <c r="N20" s="55">
         <f ca="1">_xll.qlCalendarAdvance("TARGET",N19,"6M","Unadjusted")</f>
-        <v>46458</v>
+        <v>46460</v>
       </c>
       <c r="O20" s="33">
         <f ca="1">_xll.qlDefaultTSDefaultProbability($L$4,N20,TRUE)</f>
-        <v>0.18597300411324535</v>
+        <v>0.18602367647502027</v>
       </c>
     </row>
     <row r="21" spans="2:15">
@@ -2628,15 +2628,15 @@
       </c>
       <c r="C21" s="37" t="str">
         <f ca="1">_xll.qlSchedule(,Today+1,_xll.qlCalendarAdvance("TARGET",Today,C20),"3M","TARGET","Unadjusted","Unadjusted","OldCDS")</f>
-        <v>obj_000ee#0016</v>
+        <v>obj_00044#2192</v>
       </c>
       <c r="N21" s="55">
         <f ca="1">_xll.qlCalendarAdvance("TARGET",N20,"6M","Unadjusted")</f>
-        <v>46642</v>
+        <v>46644</v>
       </c>
       <c r="O21" s="33">
         <f ca="1">_xll.qlDefaultTSDefaultProbability($L$4,N21,TRUE)</f>
-        <v>0.20208783123316942</v>
+        <v>0.20213235602178936</v>
       </c>
     </row>
     <row r="22" spans="2:15">
@@ -2648,11 +2648,11 @@
       </c>
       <c r="N22" s="55">
         <f ca="1">_xll.qlCalendarAdvance("TARGET",N21,"6M","Unadjusted")</f>
-        <v>46824</v>
+        <v>46826</v>
       </c>
       <c r="O22" s="33">
         <f ca="1">_xll.qlDefaultTSDefaultProbability($L$4,N22,TRUE)</f>
-        <v>0.21771364104697877</v>
+        <v>0.21775230498507347</v>
       </c>
     </row>
     <row r="23" spans="2:15">
@@ -2664,11 +2664,11 @@
       </c>
       <c r="N23" s="55">
         <f ca="1">_xll.qlCalendarAdvance("TARGET",N22,"6M","Unadjusted")</f>
-        <v>47008</v>
+        <v>47010</v>
       </c>
       <c r="O23" s="33">
         <f ca="1">_xll.qlDefaultTSDefaultProbability($L$4,N23,TRUE)</f>
-        <v>0.23320011692124643</v>
+        <v>0.23323307153934469</v>
       </c>
     </row>
     <row r="24" spans="2:15">
@@ -2677,15 +2677,15 @@
       </c>
       <c r="C24" s="37" t="str">
         <f ca="1">_xll.qlCreditDefaultSwap(,"BUYER",1000000,A25,C23/10000,C21,"Modified Following",EONIA!C9,TRUE,TRUE,Today+1,,TRUE)</f>
-        <v>obj_000f0#0017</v>
+        <v>obj_00045#2190</v>
       </c>
       <c r="N24" s="56">
         <f ca="1">_xll.qlCalendarAdvance("TARGET",N23,"6M","Unadjusted")</f>
-        <v>47189</v>
+        <v>47191</v>
       </c>
       <c r="O24" s="32">
         <f ca="1">_xll.qlDefaultTSDefaultProbability($L$4,N24,TRUE)</f>
-        <v>0.24813494370649281</v>
+        <v>0.24816248785966322</v>
       </c>
     </row>
     <row r="25" spans="2:15">
@@ -2694,7 +2694,7 @@
       </c>
       <c r="C25" s="37" t="str">
         <f>_xll.qlMidPointCdsEngine(,L4,H11,EONIA!C12)</f>
-        <v>obj_000f1#0021</v>
+        <v>obj_00072#0006</v>
       </c>
     </row>
     <row r="26" spans="2:15">
@@ -2708,9 +2708,9 @@
       <c r="B27" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="38">
+      <c r="C27" s="38" t="e">
         <f ca="1">_xll.qlInstrumentNPV(C24,C25)</f>
-        <v>-1833.4202215866826</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="28" spans="2:15">
